--- a/extras/sample-form/Print PDF Sample Form.xlsx
+++ b/extras/sample-form/Print PDF Sample Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitoworks/Downloads/GitHub/print-pdf/extras/sample-form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C9CF46-4132-B14D-B31D-F45C6E5B4590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FAB1AA-82E0-8F46-B422-814D2699203B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41120" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24320" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="429">
   <si>
     <t>type</t>
   </si>
@@ -2612,123 +2612,12 @@
     <t>simid</t>
   </si>
   <si>
-    <t>participant_info</t>
-  </si>
-  <si>
-    <t>Participant Information</t>
-  </si>
-  <si>
     <t>participant_name</t>
   </si>
   <si>
-    <t>Participant Full Name</t>
-  </si>
-  <si>
-    <t>training_program</t>
-  </si>
-  <si>
-    <t>Training Program Name</t>
-  </si>
-  <si>
-    <t>training_duration</t>
-  </si>
-  <si>
-    <t>Training Duration (hours)</t>
-  </si>
-  <si>
     <t>completion_date</t>
   </si>
   <si>
-    <t>Completion Date</t>
-  </si>
-  <si>
-    <t>final_score</t>
-  </si>
-  <si>
-    <t>Final Score (%)</t>
-  </si>
-  <si>
-    <t>instructor_name</t>
-  </si>
-  <si>
-    <t>Instructor Name</t>
-  </si>
-  <si>
-    <t>modules</t>
-  </si>
-  <si>
-    <t>Training Modules</t>
-  </si>
-  <si>
-    <t>module_1</t>
-  </si>
-  <si>
-    <t>Module 1 Name</t>
-  </si>
-  <si>
-    <t>module_1_date</t>
-  </si>
-  <si>
-    <t>Module 1 Completion Date</t>
-  </si>
-  <si>
-    <t>module_2</t>
-  </si>
-  <si>
-    <t>Module 2 Name</t>
-  </si>
-  <si>
-    <t>module_2_date</t>
-  </si>
-  <si>
-    <t>Module 2 Completion Date</t>
-  </si>
-  <si>
-    <t>module_3</t>
-  </si>
-  <si>
-    <t>Module 3 Name</t>
-  </si>
-  <si>
-    <t>module_3_date</t>
-  </si>
-  <si>
-    <t>Module 3 Completion Date</t>
-  </si>
-  <si>
-    <t>module_4</t>
-  </si>
-  <si>
-    <t>Module 4 Name</t>
-  </si>
-  <si>
-    <t>module_4_date</t>
-  </si>
-  <si>
-    <t>Module 4 Completion Date</t>
-  </si>
-  <si>
-    <t>additional_notes</t>
-  </si>
-  <si>
-    <t>Additional Notes</t>
-  </si>
-  <si>
-    <t>report_content</t>
-  </si>
-  <si>
-    <t>generate_certificate</t>
-  </si>
-  <si>
-    <t>Generate Certificate</t>
-  </si>
-  <si>
-    <t>multiline</t>
-  </si>
-  <si>
-    <t>. &gt; 0</t>
-  </si>
-  <si>
     <t>. &gt;= 0 and . &lt;= 100</t>
   </si>
   <si>
@@ -2741,59 +2630,271 @@
     <t>Print PDF Sample Form</t>
   </si>
   <si>
-    <t>file_name</t>
-  </si>
-  <si>
-    <t>concat('Certificate_',${participant_name},'_',${completion_date})</t>
-  </si>
-  <si>
-    <t>custom-print-pdf(content=${report_content},filename=${file_name},paperSize='a4',orientation='landscape')</t>
+    <t>data_collection</t>
+  </si>
+  <si>
+    <t>Data Collection Section</t>
+  </si>
+  <si>
+    <t>Participant Name</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>Organization/Institution</t>
+  </si>
+  <si>
+    <t>Date of Completion</t>
+  </si>
+  <si>
+    <t>select_one training_modules</t>
+  </si>
+  <si>
+    <t>modules_completed</t>
+  </si>
+  <si>
+    <t>Training Modules Completed</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>Assessment Score (0-100)</t>
+  </si>
+  <si>
+    <t>supervisor_name</t>
+  </si>
+  <si>
+    <t>Supervisor Name</t>
+  </si>
+  <si>
+    <t>certificate_title</t>
+  </si>
+  <si>
+    <t>Certificate Title</t>
+  </si>
+  <si>
+    <t>basic_list_content</t>
+  </si>
+  <si>
+    <t>table_content</t>
+  </si>
+  <si>
+    <t>certificate_content</t>
+  </si>
+  <si>
+    <t>pdf_generation</t>
+  </si>
+  <si>
+    <t>PDF Generation</t>
+  </si>
+  <si>
+    <t>basic_list_pdf</t>
+  </si>
+  <si>
+    <t>Generate Basic List PDF</t>
+  </si>
+  <si>
+    <t>table_pdf</t>
+  </si>
+  <si>
+    <t>Generate Table PDF</t>
+  </si>
+  <si>
+    <t>certificate_pdf</t>
+  </si>
+  <si>
+    <t>Generate Certificate PDF</t>
+  </si>
+  <si>
+    <t>Certificate Content</t>
+  </si>
+  <si>
+    <t>Table Content</t>
+  </si>
+  <si>
+    <t>Basic List Content</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>custom-print-pdf(content=${basic_list_content}, filename='basic_list.pdf')</t>
+  </si>
+  <si>
+    <t>custom-print-pdf(content=${table_content}, filename='data_table.pdf', paperSize='letter')</t>
+  </si>
+  <si>
+    <t>custom-print-pdf(content=${certificate_content}, filename='certificate.pdf', orientation='landscape', marginslr=15, marginstb=20)</t>
+  </si>
+  <si>
+    <t>training_modules</t>
+  </si>
+  <si>
+    <t>module1</t>
+  </si>
+  <si>
+    <t>Data Collection Fundamentals</t>
+  </si>
+  <si>
+    <t>module2</t>
+  </si>
+  <si>
+    <t>Data Analysis Techniques</t>
+  </si>
+  <si>
+    <t>module3</t>
+  </si>
+  <si>
+    <t>Report Writing</t>
+  </si>
+  <si>
+    <t>module4</t>
+  </si>
+  <si>
+    <t>Quality Assurance</t>
+  </si>
+  <si>
+    <t>module5</t>
+  </si>
+  <si>
+    <t>Advanced Statistics</t>
   </si>
   <si>
     <t>concat(
-  '&lt;section&gt;',
-    '&lt;div style="text-align: center; padding: 40px 20px; border: 3px solid #f39c12;"&gt;',
-      '&lt;h2 style="color: #2c3e50; font-size: 32px; margin-bottom: 30px;"&gt;CERTIFICATE OF COMPLETION&lt;/h2&gt;',
-      '&lt;div style="margin: 40px 0;"&gt;',
-        '&lt;p style="font-size: 18px; margin-bottom: 20px;"&gt;This is to certify that&lt;/p&gt;',
-        '&lt;h3 style="color: #e74c3c; font-size: 28px; text-decoration: underline; margin: 20px 0;"&gt;', ${participant_name}, '&lt;/h3&gt;',
-        '&lt;p style="font-size: 18px; margin-bottom: 20px;"&gt;has successfully completed the training program&lt;/p&gt;',
-        '&lt;h4 style="color: #2c3e50; font-size: 24px; margin: 20px 0;"&gt;', ${training_program}, '&lt;/h4&gt;',
-      '&lt;/div&gt;',
-      '&lt;div style="margin: 40px 0;"&gt;',
-        '&lt;p style="font-size: 16px;"&gt;&lt;strong&gt;Training Duration:&lt;/strong&gt; ', ${training_duration}, ' hours&lt;/p&gt;',
-        '&lt;p style="font-size: 16px;"&gt;&lt;strong&gt;Completion Date:&lt;/strong&gt; ', ${completion_date}, '&lt;/p&gt;',
-        '&lt;p style="font-size: 16px;"&gt;&lt;strong&gt;Score:&lt;/strong&gt; ', ${final_score}, '%&lt;/p&gt;',
-      '&lt;/div&gt;',
-      '&lt;div style="margin-top: 60px; display: grid; grid-template-columns: 1fr 1fr; gap: 100px;"&gt;',
-        '&lt;div style="text-align: center;"&gt;',
-          '&lt;div style="border-top: 2px solid #2c3e50; padding-top: 10px;"&gt;',
-            '&lt;p style="margin: 0; font-weight: bold;"&gt;', ${instructor_name}, '&lt;/p&gt;',
-            '&lt;p style="margin: 5px 0 0 0; font-size: 14px;"&gt;Training Instructor&lt;/p&gt;',
-          '&lt;/div&gt;',
-        '&lt;/div&gt;',
-        '&lt;div style="text-align: center;"&gt;',
-          '&lt;div style="border-top: 2px solid #2c3e50; padding-top: 10px;"&gt;',
-            '&lt;p style="margin: 0; font-weight: bold;"&gt;', today(), '&lt;/p&gt;',
-            '&lt;p style="margin: 5px 0 0 0; font-size: 14px;"&gt;Date Issued&lt;/p&gt;',
-          '&lt;/div&gt;',
-        '&lt;/div&gt;',
-      '&lt;/div&gt;',
-    '&lt;/div&gt;',
-  '&lt;/section&gt;',
-  '&lt;section style="page-break-before: always; break-before: page;"&gt;',
-    '&lt;h4 style="color: #2c3e50; border-bottom: 2px solid #f39c12; padding-bottom: 10px;"&gt;Training Modules Completed&lt;/h4&gt;',
-    '&lt;ul style="margin-top: 15px; line-height: 2;"&gt;',
-      '&lt;li&gt;', ${module_1}, ' - Completed: ', ${module_1_date}, '&lt;/li&gt;',
-      '&lt;li&gt;', ${module_2}, ' - Completed: ', ${module_2_date}, '&lt;/li&gt;',
-      '&lt;li&gt;', ${module_3}, ' - Completed: ', ${module_3_date}, '&lt;/li&gt;',
-      '&lt;li&gt;', ${module_4}, ' - Completed: ', ${module_4_date}, '&lt;/li&gt;',
-    '&lt;/ul&gt;',
-    '&lt;div style="margin-top: 30px; padding: 20px; background-color: #f8f9fa; border-left: 4px solid #f39c12;"&gt;',
-      '&lt;p style="margin: 0; font-weight: bold;"&gt;Additional Notes:&lt;/p&gt;',
-      '&lt;p style="margin: 10px 0 0 0;"&gt;', ${additional_notes}, '&lt;/p&gt;',
-    '&lt;/div&gt;',
-  '&lt;/section&gt;'
+'&lt;div style="font-family: Arial, sans-serif; max-width: 800px; margin: 0 auto; padding: 20px;"&gt;',
+'&lt;section style="background-color: #f9f9f9; border: 1px solid #ddd; padding: 20px; margin-bottom: 25px; border-radius: 4px;"&gt;',
+'&lt;h2 style="color: #2c3e50; margin-top: 0; margin-bottom: 20px; border-bottom: 2px solid #3498db; padding-bottom: 10px;"&gt;Participant Information&lt;/h2&gt;',
+'&lt;div style="margin-bottom: 15px;"&gt;&lt;strong style="color: #34495e; display: inline-block; width: 150px;"&gt;Name:&lt;/strong&gt; ', ${participant_name}, '&lt;/div&gt;',
+'&lt;div style="margin-bottom: 15px;"&gt;&lt;strong style="color: #34495e; display: inline-block; width: 150px;"&gt;Organization:&lt;/strong&gt; ', ${organization}, '&lt;/div&gt;',
+'&lt;div style="margin-bottom: 15px;"&gt;&lt;strong style="color: #34495e; display: inline-block; width: 150px;"&gt;Date:&lt;/strong&gt; ', ${completion_date}, '&lt;/div&gt;',
+'&lt;div style="margin-bottom: 15px;"&gt;&lt;strong style="color: #34495e; display: inline-block; width: 150px;"&gt;Score:&lt;/strong&gt; ', ${score}, '/100&lt;/div&gt;',
+'&lt;div style="margin-bottom: 15px;"&gt;&lt;strong style="color: #34495e; display: inline-block; width: 150px;"&gt;Supervisor:&lt;/strong&gt; ', ${supervisor_name}, '&lt;/div&gt;',
+'&lt;/section&gt;',
+'&lt;section style="background-color: #f9f9f9; border: 1px solid #ddd; padding: 20px; margin-bottom: 25px; border-radius: 4px;"&gt;',
+'&lt;h2 style="color: #2c3e50; margin-top: 0; margin-bottom: 20px; border-bottom: 2px solid #3498db; padding-bottom: 10px;"&gt;Training Modules&lt;/h2&gt;',
+'&lt;div style="margin-bottom: 15px;"&gt;&lt;strong style="color: #34495e;"&gt;Completed Module:&lt;/strong&gt; ', 
+if(${modules_completed} = 'module1', 'Data Collection Fundamentals',
+if(${modules_completed} = 'module2', 'Data Analysis Techniques', 
+if(${modules_completed} = 'module3', 'Report Writing',
+if(${modules_completed} = 'module4', 'Quality Assurance', 
+if(${modules_completed} = 'module5', 'Advanced Statistics', 'Unknown'))))), '&lt;/div&gt;',
+'&lt;div style="margin-top: 20px; padding: 15px; background-color: ', 
+if(${score} &gt;= 80, '#d5edda; border-left: 4px solid #28a745; color: #155724;', 
+if(${score} &gt;= 60, '#fff3cd; border-left: 4px solid #ffc107; color: #856404;', '#f8d7da; border-left: 4px solid #dc3545; color: #721c24;')), '"&gt;',
+'&lt;strong&gt;Performance: &lt;/strong&gt;',
+if(${score} &gt;= 80, 'Excellent', if(${score} &gt;= 60, 'Good', 'Needs Improvement')),
+'&lt;/div&gt;',
+'&lt;/section&gt;',
+'&lt;/div&gt;'
+)</t>
+  </si>
+  <si>
+    <t>concat(
+'&lt;div style="font-family: Arial, sans-serif; max-width: 800px; margin: 0 auto; padding: 20px;"&gt;',
+'&lt;section style="background-color: #f9f9f9; border: 1px solid #ddd; padding: 20px; margin-bottom: 25px; border-radius: 4px;"&gt;',
+'&lt;h2 style="color: #2c3e50; margin-top: 0; margin-bottom: 20px; text-align: center;"&gt;Training Summary Report&lt;/h2&gt;',
+'&lt;table style="width: 100%; border-collapse: collapse; margin-top: 20px; font-size: 14px;"&gt;',
+'&lt;thead&gt;',
+'&lt;tr style="background-color: #3498db; color: white;"&gt;',
+'&lt;th style="border: 1px solid #2980b9; padding: 12px; text-align: left;"&gt;Field&lt;/th&gt;',
+'&lt;th style="border: 1px solid #2980b9; padding: 12px; text-align: left;"&gt;Value&lt;/th&gt;',
+'&lt;th style="border: 1px solid #2980b9; padding: 12px; text-align: left;"&gt;Status&lt;/th&gt;',
+'&lt;/tr&gt;',
+'&lt;/thead&gt;',
+'&lt;tbody&gt;',
+'&lt;tr style="background-color: #ffffff;"&gt;',
+'&lt;td style="border: 1px solid #bdc3c7; padding: 10px; font-weight: bold;"&gt;Participant Name&lt;/td&gt;',
+'&lt;td style="border: 1px solid #bdc3c7; padding: 10px;"&gt;', ${participant_name}, '&lt;/td&gt;',
+'&lt;td style="border: 1px solid #bdc3c7; padding: 10px;"&gt;&lt;span style="color: #27ae60;"&gt;✓ Complete&lt;/span&gt;&lt;/td&gt;',
+'&lt;/tr&gt;',
+'&lt;tr style="background-color: #f8f9fa;"&gt;',
+'&lt;td style="border: 1px solid #bdc3c7; padding: 10px; font-weight: bold;"&gt;Organization&lt;/td&gt;',
+'&lt;td style="border: 1px solid #bdc3c7; padding: 10px;"&gt;', ${organization}, '&lt;/td&gt;',
+'&lt;td style="border: 1px solid #bdc3c7; padding: 10px;"&gt;&lt;span style="color: #27ae60;"&gt;✓ Complete&lt;/span&gt;&lt;/td&gt;',
+'&lt;/tr&gt;',
+'&lt;tr style="background-color: #ffffff;"&gt;',
+'&lt;td style="border: 1px solid #bdc3c7; padding: 10px; font-weight: bold;"&gt;Completion Date&lt;/td&gt;',
+'&lt;td style="border: 1px solid #bdc3c7; padding: 10px;"&gt;', ${completion_date}, '&lt;/td&gt;',
+'&lt;td style="border: 1px solid #bdc3c7; padding: 10px;"&gt;&lt;span style="color: #27ae60;"&gt;✓ Complete&lt;/span&gt;&lt;/td&gt;',
+'&lt;/tr&gt;',
+'&lt;tr style="background-color: #f8f9fa;"&gt;',
+'&lt;td style="border: 1px solid #bdc3c7; padding: 10px; font-weight: bold;"&gt;Training Module&lt;/td&gt;',
+'&lt;td style="border: 1px solid #bdc3c7; padding: 10px;"&gt;',
+if(${modules_completed} = 'module1', 'Data Collection Fundamentals',
+if(${modules_completed} = 'module2', 'Data Analysis Techniques', 
+if(${modules_completed} = 'module3', 'Report Writing',
+if(${modules_completed} = 'module4', 'Quality Assurance', 
+if(${modules_completed} = 'module5', 'Advanced Statistics', 'Unknown'))))), '&lt;/td&gt;',
+'&lt;td style="border: 1px solid #bdc3c7; padding: 10px;"&gt;&lt;span style="color: #27ae60;"&gt;✓ Complete&lt;/span&gt;&lt;/td&gt;',
+'&lt;/tr&gt;',
+'&lt;tr style="background-color: #ffffff;"&gt;',
+'&lt;td style="border: 1px solid #bdc3c7; padding: 10px; font-weight: bold;"&gt;Assessment Score&lt;/td&gt;',
+'&lt;td style="border: 1px solid #bdc3c7; padding: 10px; font-weight: bold; color: ',
+if(${score} &gt;= 80, '#27ae60;', if(${score} &gt;= 60, '#f39c12;', '#e74c3c;')), '"&gt;', ${score}, '/100&lt;/td&gt;',
+'&lt;td style="border: 1px solid #bdc3c7; padding: 10px;"&gt;',
+'&lt;span style="color: ', if(${score} &gt;= 80, '#27ae60;"&gt;✓ Excellent', if(${score} &gt;= 60, '#f39c12;"&gt;⚠ Good', '#e74c3c;"&gt;✗ Needs Improvement')), '&lt;/span&gt;&lt;/td&gt;',
+'&lt;/tr&gt;',
+'&lt;tr style="background-color: #f8f9fa;"&gt;',
+'&lt;td style="border: 1px solid #bdc3c7; padding: 10px; font-weight: bold;"&gt;Supervisor&lt;/td&gt;',
+'&lt;td style="border: 1px solid #bdc3c7; padding: 10px;"&gt;', ${supervisor_name}, '&lt;/td&gt;',
+'&lt;td style="border: 1px solid #bdc3c7; padding: 10px;"&gt;&lt;span style="color: #27ae60;"&gt;✓ Verified&lt;/span&gt;&lt;/td&gt;',
+'&lt;/tr&gt;',
+'&lt;/tbody&gt;',
+'&lt;/table&gt;',
+'&lt;/section&gt;',
+'&lt;/div&gt;'
+)</t>
+  </si>
+  <si>
+    <t>'Technical Training Completion'</t>
+  </si>
+  <si>
+    <t>concat(
+'&lt;div style="font-family: Georgia, serif; max-width: 800px; margin: 0 auto; padding: 20px;"&gt;',
+'&lt;section style="background-color: #f9f9f9; border: 3px solid #2c3e50; padding: 25px; border-radius: 8px; page-break-inside: avoid; break-inside: avoid;"&gt;',
+'&lt;div style="background-color: white; border: 2px solid #3498db; padding: 20px; page-break-inside: avoid; break-inside: avoid;"&gt;',
+'&lt;div style="display: flex; align-items: center; justify-content: space-between; margin-bottom: 20px;"&gt;',
+'&lt;img src="logo.png" alt="Organization Logo" style="height: 50px; width: auto;" /&gt;',
+'&lt;div style="text-align: center; flex-grow: 1;"&gt;',
+'&lt;h1 style="font-size: 28px; color: #2c3e50; margin: 0; text-transform: uppercase; letter-spacing: 1px;"&gt;Certificate&lt;/h1&gt;',
+'&lt;h2 style="font-size: 18px; color: #3498db; margin: 5px 0 0 0; font-weight: normal;"&gt;of Completion&lt;/h2&gt;',
+'&lt;/div&gt;',
+'&lt;div style="width: 50px;"&gt;&lt;/div&gt;',
+'&lt;/div&gt;',
+'&lt;div style="text-align: center; margin: 20px 0;"&gt;',
+'&lt;p style="font-size: 16px; color: #34495e; margin: 0 0 10px 0;"&gt;This is to certify that&lt;/p&gt;',
+'&lt;h3 style="font-size: 24px; color: #2c3e50; margin: 8px 0; text-decoration: underline; text-decoration-color: #3498db;"&gt;', ${participant_name}, '&lt;/h3&gt;',
+'&lt;p style="font-size: 16px; color: #34495e; margin: 8px 0;"&gt;from &lt;strong style="color: #2c3e50;"&gt;', ${organization}, '&lt;/strong&gt;&lt;/p&gt;',
+'&lt;p style="font-size: 16px; color: #34495e; margin: 15px 0 8px 0;"&gt;has successfully completed the training program&lt;/p&gt;',
+'&lt;h4 style="font-size: 18px; color: #3498db; margin: 8px 0; font-style: italic; line-height: 1.3;"&gt;', 
+if(${certificate_title} != '', ${certificate_title},
+if(${modules_completed} = 'module1', 'Data Collection Fundamentals Certification',
+if(${modules_completed} = 'module2', 'Data Analysis Techniques Certification', 
+if(${modules_completed} = 'module3', 'Report Writing Certification',
+if(${modules_completed} = 'module4', 'Quality Assurance Certification', 
+if(${modules_completed} = 'module5', 'Advanced Statistics Certification', 'Technical Training Certification')))))), '&lt;/h4&gt;',
+'&lt;p style="font-size: 15px; color: #34495e; margin: 15px 0 5px 0;"&gt;with a score of &lt;strong style="color: #27ae60; font-size: 16px;"&gt;', ${score}, '/100&lt;/strong&gt;&lt;/p&gt;',
+'&lt;p style="font-size: 15px; color: #34495e; margin: 5px 0 20px 0;"&gt;completed on &lt;strong&gt;', ${completion_date}, '&lt;/strong&gt;&lt;/p&gt;',
+'&lt;/div&gt;',
+'&lt;div style="display: flex; justify-content: space-between; margin-top: 25px; page-break-inside: avoid; break-inside: avoid;"&gt;',
+'&lt;div style="text-align: center; width: 45%;"&gt;',
+'&lt;div style="border-top: 2px solid #2c3e50; padding-top: 8px;"&gt;',
+'&lt;p style="font-size: 14px; color: #2c3e50; margin: 0; font-weight: bold;"&gt;', ${supervisor_name}, '&lt;/p&gt;',
+'&lt;p style="font-size: 12px; color: #7f8c8d; margin: 3px 0 0 0;"&gt;Training Supervisor&lt;/p&gt;',
+'&lt;/div&gt;',
+'&lt;/div&gt;',
+'&lt;div style="text-align: center; width: 45%;"&gt;',
+'&lt;div style="border-top: 2px solid #2c3e50; padding-top: 8px;"&gt;',
+'&lt;p style="font-size: 14px; color: #2c3e50; margin: 0; font-weight: bold;"&gt;Official Seal&lt;/p&gt;',
+'&lt;p style="font-size: 12px; color: #7f8c8d; margin: 3px 0 0 0;"&gt;Date Issued: ', ${completion_date}, '&lt;/p&gt;',
+'&lt;/div&gt;',
+'&lt;/div&gt;',
+'&lt;/div&gt;',
+'&lt;/div&gt;',
+'&lt;/section&gt;',
+'&lt;/div&gt;'
 )</t>
   </si>
 </sst>
@@ -3346,7 +3447,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3380,6 +3480,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="108">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -3494,6 +3595,64 @@
   <dxfs count="119">
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -3503,6 +3662,50 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFEEB400"/>
         </patternFill>
       </fill>
@@ -3545,6 +3748,39 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="6" tint="0.59999389629810485"/>
@@ -3553,6 +3789,14 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
@@ -3569,6 +3813,14 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3582,6 +3834,350 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE3E0CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBA005D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE3E0CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBA005D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFDCC97A"/>
@@ -3590,96 +4186,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFE4E300"/>
@@ -3688,61 +4194,15 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
+          <bgColor rgb="FFEEB400"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor rgb="FFEEB400"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3750,365 +4210,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE3E0CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBA005D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE3E0CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBA005D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4152,6 +4253,28 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FFE3E0CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFBA005D"/>
@@ -4160,44 +4283,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE3E0CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
           <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4212,6 +4299,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFD44B"/>
         </patternFill>
       </fill>
@@ -4236,6 +4337,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -4248,7 +4356,125 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF6969"/>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4257,119 +4483,9 @@
         <color auto="1"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6D9E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4378,23 +4494,8 @@
         <color auto="1"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
+          <bgColor rgb="FFFF6D9E"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4813,11 +4914,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N31" sqref="N31"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5083,16 +5184,19 @@
         <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C12" t="s">
-        <v>376</v>
-      </c>
-      <c r="F12"/>
+        <v>382</v>
+      </c>
+      <c r="F12" t="s">
+        <v>410</v>
+      </c>
       <c r="G12"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12"/>
+      <c r="N12"/>
       <c r="V12"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
@@ -5100,19 +5204,19 @@
         <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C13" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" t="s">
-        <v>415</v>
-      </c>
-      <c r="N13" s="44"/>
+        <v>378</v>
+      </c>
+      <c r="N13"/>
       <c r="V13"/>
     </row>
     <row r="14" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -5120,10 +5224,10 @@
         <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C14" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
@@ -5134,371 +5238,333 @@
         <v>358</v>
       </c>
       <c r="K14" t="s">
-        <v>415</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N14"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C15" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F15"/>
-      <c r="G15" t="s">
-        <v>413</v>
-      </c>
+      <c r="G15"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" t="s">
-        <v>415</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N15"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>387</v>
       </c>
       <c r="B16" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C16" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
       <c r="K16" t="s">
-        <v>415</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N16"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C17" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="F17"/>
       <c r="G17" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="K17" t="s">
-        <v>415</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N17"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C18" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
       <c r="K18" t="s">
-        <v>415</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N18"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19"/>
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>394</v>
+      </c>
+      <c r="C19" t="s">
+        <v>395</v>
+      </c>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="K19"/>
+      <c r="K19" t="s">
+        <v>373</v>
+      </c>
+      <c r="N19" s="55" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" t="s">
-        <v>389</v>
-      </c>
-      <c r="C20" t="s">
-        <v>390</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="K20"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="C21" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="K21" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K21"/>
+      <c r="N21" s="20" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C22" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="K22" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K22"/>
+      <c r="N22" s="20" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C23" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="K23" t="s">
-        <v>415</v>
+      <c r="K23"/>
+      <c r="N23" s="20" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B24" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C24" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="K24" t="s">
-        <v>415</v>
-      </c>
+      <c r="K24"/>
+      <c r="N24"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C25" t="s">
-        <v>400</v>
-      </c>
-      <c r="F25"/>
+        <v>402</v>
+      </c>
+      <c r="F25" t="s">
+        <v>411</v>
+      </c>
       <c r="G25"/>
-      <c r="K25" t="s">
-        <v>415</v>
-      </c>
+      <c r="K25"/>
+      <c r="N25"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C26" t="s">
-        <v>402</v>
-      </c>
-      <c r="F26"/>
+        <v>404</v>
+      </c>
+      <c r="F26" t="s">
+        <v>412</v>
+      </c>
       <c r="G26"/>
-      <c r="K26" t="s">
-        <v>415</v>
-      </c>
+      <c r="K26"/>
+      <c r="N26"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F27"/>
+        <v>406</v>
+      </c>
+      <c r="F27" t="s">
+        <v>413</v>
+      </c>
       <c r="G27"/>
-      <c r="K27" t="s">
-        <v>415</v>
-      </c>
+      <c r="K27"/>
+      <c r="N27"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" t="s">
-        <v>405</v>
-      </c>
-      <c r="C28" t="s">
-        <v>406</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="K28" t="s">
-        <v>415</v>
-      </c>
+      <c r="K28"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>151</v>
-      </c>
+      <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="K29"/>
+      <c r="N29" s="11"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" t="s">
-        <v>407</v>
-      </c>
-      <c r="C30" t="s">
-        <v>408</v>
-      </c>
-      <c r="F30" t="s">
-        <v>412</v>
-      </c>
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="F30"/>
       <c r="G30"/>
       <c r="K30"/>
-    </row>
-    <row r="31" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" t="s">
-        <v>409</v>
-      </c>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31"/>
+      <c r="B31"/>
       <c r="C31"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="K31"/>
-      <c r="N31" s="11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>139</v>
-      </c>
-      <c r="B32" t="s">
-        <v>418</v>
-      </c>
-      <c r="C32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="K32"/>
-      <c r="N32" s="11" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" t="s">
-        <v>410</v>
-      </c>
-      <c r="C33" t="s">
-        <v>411</v>
-      </c>
-      <c r="F33" t="s">
-        <v>420</v>
-      </c>
-      <c r="G33"/>
-      <c r="K33"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:W1048576">
-    <cfRule type="expression" dxfId="118" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="2" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="5" stopIfTrue="1">
+      <formula>$A1="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="9" stopIfTrue="1">
+      <formula>OR($A1="audio", $A1="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="11" stopIfTrue="1">
+      <formula>$A1="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="15" stopIfTrue="1">
+      <formula>OR($A1="date", $A1="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="17" stopIfTrue="1">
+      <formula>OR($A1="calculate", $A1="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="19" stopIfTrue="1">
+      <formula>$A1="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="21" stopIfTrue="1">
+      <formula>$A1="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="23" stopIfTrue="1">
+      <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="25" stopIfTrue="1">
+      <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="28" stopIfTrue="1">
+      <formula>OR($A1="username", $A1="phonenumber", $A1="start", $A1="end", $A1="deviceid", $A1="subscriberid", $A1="simserial", $A1="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="35" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="40" stopIfTrue="1">
+      <formula>$A1="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="42" stopIfTrue="1">
+      <formula>$A1="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="44" stopIfTrue="1">
+      <formula>$A1="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="45" stopIfTrue="1">
+      <formula>$A1="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="47" stopIfTrue="1">
+      <formula>$A1="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="48" stopIfTrue="1">
+      <formula>$A1="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="50" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="25" stopIfTrue="1">
-      <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="5" stopIfTrue="1">
-      <formula>$A1="comments"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="9" stopIfTrue="1">
-      <formula>OR($A1="audio", $A1="video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="11" stopIfTrue="1">
-      <formula>$A1="image"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="15" stopIfTrue="1">
-      <formula>OR($A1="date", $A1="datetime")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="17" stopIfTrue="1">
-      <formula>OR($A1="calculate", $A1="calculate_here")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="19" stopIfTrue="1">
-      <formula>$A1="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="48" stopIfTrue="1">
-      <formula>$A1="end group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="47" stopIfTrue="1">
-      <formula>$A1="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="45" stopIfTrue="1">
-      <formula>$A1="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="44" stopIfTrue="1">
-      <formula>$A1="text"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="42" stopIfTrue="1">
-      <formula>$A1="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="40" stopIfTrue="1">
-      <formula>$A1="decimal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="35" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="21" stopIfTrue="1">
-      <formula>$A1="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="28" stopIfTrue="1">
-      <formula>OR($A1="username", $A1="phonenumber", $A1="start", $A1="end", $A1="deviceid", $A1="subscriberid", $A1="simserial", $A1="caseid")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="23" stopIfTrue="1">
-      <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="2" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576 F1:F1048576">
-    <cfRule type="expression" dxfId="99" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="1" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="24" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="1" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576 N1:N1048576">
@@ -5517,14 +5583,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1048576 F1:F1048576">
-    <cfRule type="expression" dxfId="94" priority="34" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
+    <cfRule type="expression" dxfId="94" priority="10" stopIfTrue="1">
+      <formula>$A1="image"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="93" priority="14" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="10" stopIfTrue="1">
-      <formula>$A1="image"</formula>
+    <cfRule type="expression" dxfId="92" priority="34" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1048576 I1:I1048576 O1:O1048576">
@@ -5533,17 +5599,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="expression" dxfId="90" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="8" stopIfTrue="1">
+      <formula>OR($A1="audio", $A1="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="18" stopIfTrue="1">
+      <formula>$A1="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="20" stopIfTrue="1">
+      <formula>$A1="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="22" stopIfTrue="1">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="20" stopIfTrue="1">
-      <formula>$A1="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="18" stopIfTrue="1">
-      <formula>$A1="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="8" stopIfTrue="1">
-      <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1048576 F1:F1048576">
@@ -5571,7 +5637,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5626,19 +5692,59 @@
       <c r="A4" s="16"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
@@ -5677,7 +5783,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5713,14 +5819,14 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="C2" s="16" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2505301555</v>
+        <v>2506021240</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>358</v>
@@ -5755,20 +5861,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:30" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="5" spans="1:30" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -5955,10 +6061,10 @@
       </c>
     </row>
     <row r="8" spans="1:30" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
@@ -8745,10 +8851,10 @@
       <c r="AD81" s="35"/>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A83" s="52" t="s">
+      <c r="A83" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="B83" s="53"/>
+      <c r="B83" s="52"/>
       <c r="C83" s="25"/>
       <c r="D83" s="24"/>
       <c r="E83" s="29"/>
@@ -9544,11 +9650,11 @@
     <mergeCell ref="A83:B83"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5">
-    <cfRule type="expression" dxfId="82" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="95" stopIfTrue="1">
+      <formula>$A5="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="96" stopIfTrue="1">
       <formula>$A5="end group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="95" stopIfTrue="1">
-      <formula>$A5="begin repeat"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="80" priority="98" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
@@ -9567,40 +9673,40 @@
     <cfRule type="expression" dxfId="76" priority="81" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="83" stopIfTrue="1">
+      <formula>OR($A5="audio audit", $A5="text audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="84" stopIfTrue="1">
+      <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="86" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="88" stopIfTrue="1">
+      <formula>$A5="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="90" stopIfTrue="1">
+      <formula>$A5="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="92" stopIfTrue="1">
+      <formula>$A5="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="93" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="92" stopIfTrue="1">
-      <formula>$A5="text"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="83" stopIfTrue="1">
-      <formula>OR($A5="audio audit", $A5="text audit")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="90" stopIfTrue="1">
-      <formula>$A5="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="84" stopIfTrue="1">
-      <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="88" stopIfTrue="1">
-      <formula>$A5="decimal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="86" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5">
-    <cfRule type="expression" dxfId="68" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="67" stopIfTrue="1">
+      <formula>$A5="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="69" stopIfTrue="1">
+      <formula>OR($A5="audio", $A5="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="71" stopIfTrue="1">
+      <formula>$A5="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="73" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="71" stopIfTrue="1">
-      <formula>$A5="image"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="69" stopIfTrue="1">
-      <formula>OR($A5="audio", $A5="video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="67" stopIfTrue="1">
-      <formula>$A5="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 H5">
@@ -9624,11 +9730,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="60" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="70" stopIfTrue="1">
+      <formula>$A5="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="72" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="70" stopIfTrue="1">
-      <formula>$A5="image"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="58" priority="85" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
@@ -9667,86 +9773,86 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="49" priority="41" stopIfTrue="1">
-      <formula>OR($A5="date", $A5="datetime")</formula>
+    <cfRule type="expression" dxfId="49" priority="39" stopIfTrue="1">
+      <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="48" priority="40" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="47" stopIfTrue="1">
-      <formula>$A5="begin group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="45" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="39" stopIfTrue="1">
-      <formula>OR($A5="audio", $A5="video")</formula>
+    <cfRule type="expression" dxfId="47" priority="41" stopIfTrue="1">
+      <formula>OR($A5="date", $A5="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="42" stopIfTrue="1">
+      <formula>$A5="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="43" stopIfTrue="1">
+      <formula>$A5="barcode"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="44" priority="44" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="43" stopIfTrue="1">
-      <formula>$A5="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="42" stopIfTrue="1">
-      <formula>$A5="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="45" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="46" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="47" stopIfTrue="1">
+      <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
     <cfRule type="expression" dxfId="40" priority="30" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="32" stopIfTrue="1">
+      <formula>$A5="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="36" stopIfTrue="1">
+      <formula>$A5="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="37" stopIfTrue="1">
+      <formula>$A5="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="37" stopIfTrue="1">
-      <formula>$A5="end group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="36" stopIfTrue="1">
-      <formula>$A5="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32" stopIfTrue="1">
-      <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:O5">
     <cfRule type="expression" dxfId="35" priority="31" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
-      <formula>$A5="end repeat"</formula>
+    <cfRule type="expression" dxfId="34" priority="33" stopIfTrue="1">
+      <formula>$A5="integer"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="34" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="33" stopIfTrue="1">
-      <formula>$A5="integer"</formula>
+    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
+      <formula>$A5="end repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:P5">
-    <cfRule type="expression" dxfId="31" priority="11" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="10" stopIfTrue="1">
-      <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="9" stopIfTrue="1">
-      <formula>OR($A5="audio audit", $A5="text audit")</formula>
+    <cfRule type="expression" dxfId="31" priority="5" stopIfTrue="1">
+      <formula>OR($A5="calculate", $A5="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="6" stopIfTrue="1">
+      <formula>$A5="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
+      <formula>$A5="barcode"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="7" stopIfTrue="1">
-      <formula>$A5="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="6" stopIfTrue="1">
-      <formula>$A5="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="5" stopIfTrue="1">
-      <formula>OR($A5="calculate", $A5="calculate_here")</formula>
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
+      <formula>OR($A5="audio audit", $A5="text audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
+      <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:AD5">
@@ -9764,46 +9870,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="20" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="12" stopIfTrue="1">
+      <formula>$A5="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
+      <formula>$A5="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="14" stopIfTrue="1">
+      <formula>$A5="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="15" stopIfTrue="1">
+      <formula>$A5="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
+      <formula>$A5="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+      <formula>$A5="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="12" stopIfTrue="1">
-      <formula>$A5="decimal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="13" stopIfTrue="1">
-      <formula>$A5="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
-      <formula>$A5="text"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
-      <formula>$A5="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
-      <formula>$A5="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
-      <formula>$A5="end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:AD5">
-    <cfRule type="expression" dxfId="13" priority="65" stopIfTrue="1">
-      <formula>$A5="begin group"</formula>
+    <cfRule type="expression" dxfId="13" priority="52" stopIfTrue="1">
+      <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="53" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="52" stopIfTrue="1">
-      <formula>OR($A5="calculate", $A5="calculate_here")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="54" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="55" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="56" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="57" stopIfTrue="1">
+      <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="58" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
@@ -9826,8 +9932,8 @@
     <cfRule type="expression" dxfId="1" priority="64" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="57" stopIfTrue="1">
-      <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
+    <cfRule type="expression" dxfId="0" priority="65" stopIfTrue="1">
+      <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9849,20 +9955,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
@@ -9936,28 +10042,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="39"/>
       <c r="D1" s="39"/>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
